--- a/Anzahl_Pforms-Gesamt.xlsx
+++ b/Anzahl_Pforms-Gesamt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschu\Desktop\Beta-Recog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51E4ACA-499C-4F22-9EF2-432C755394E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352630F-ED06-4EF3-ABC4-00717E46C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="31">
   <si>
     <t xml:space="preserve">BER  </t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>DOM</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>DOS</t>
@@ -154,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -198,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -207,6 +210,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -521,21 +525,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F73C7A-E6D5-42DE-AB12-D3DBA7F9CF75}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="15" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="18" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2013</v>
       </c>
@@ -545,26 +551,26 @@
       <c r="G1">
         <v>2015</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2016</v>
       </c>
-      <c r="K1">
+      <c r="M1">
         <v>2017</v>
       </c>
-      <c r="M1">
+      <c r="P1">
         <v>2018</v>
       </c>
-      <c r="O1">
+      <c r="S1">
         <v>2019</v>
       </c>
-      <c r="Q1">
+      <c r="U1">
         <v>2020</v>
       </c>
-      <c r="R1">
+      <c r="V1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -583,32 +589,38 @@
       <c r="H2">
         <v>297</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="K2">
+        <v>363</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2">
         <v>172</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
+        <v>136</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2">
         <v>110</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>8</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -627,26 +639,38 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="L3">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>22</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -665,26 +689,38 @@
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="L4">
+      <c r="K4">
+        <v>129299</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
         <v>128195</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
+        <v>128573</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4">
         <v>135064</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>156437</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -703,26 +739,38 @@
       <c r="H5">
         <v>129563</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1">
+        <v>311</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1">
         <v>267</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
+        <v>241</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="1">
         <v>263</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="1">
+      <c r="W5" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -741,26 +789,38 @@
       <c r="H6" s="1">
         <v>354</v>
       </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="T6" s="1">
         <v>1468</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
         <v>1343</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -779,26 +839,38 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>107</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>1539</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1538</v>
+      </c>
+      <c r="S7" t="s">
         <v>20</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>90</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>20</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -817,26 +889,38 @@
       <c r="H8" s="1">
         <v>1514</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>89</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>97</v>
+      </c>
+      <c r="S8" t="s">
         <v>19</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>8</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>19</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -855,26 +939,38 @@
       <c r="H9">
         <v>120</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7112</v>
+      </c>
+      <c r="M9" t="s">
         <v>19</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
         <v>6278</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W9" s="2">
         <v>5726</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -893,26 +989,38 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>14793</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>6667</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>6294</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="2">
+      <c r="T10" s="2">
         <v>14373</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W10" s="2">
         <v>12430</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,26 +1039,38 @@
       <c r="H11" s="2">
         <v>7680</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>7202</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>14739</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>14475</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="2">
+      <c r="T11" s="2">
         <v>6980</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W11" s="2">
         <v>5337</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -969,26 +1089,38 @@
       <c r="H12" s="2">
         <v>14623</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>6621</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>6799</v>
+      </c>
+      <c r="S12" t="s">
         <v>21</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>18</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>21</v>
       </c>
-      <c r="S12">
+      <c r="W12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1007,26 +1139,38 @@
       <c r="H13" s="2">
         <v>6977</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>775</v>
+      </c>
+      <c r="M13" t="s">
         <v>21</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>14</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
         <v>6</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>648</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>6</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1045,26 +1189,38 @@
       <c r="H14">
         <v>6</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>642</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>620</v>
+      </c>
+      <c r="S14" t="s">
         <v>12</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>57</v>
       </c>
-      <c r="R14" t="s">
+      <c r="V14" t="s">
         <v>12</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1083,26 +1239,38 @@
       <c r="H15">
         <v>1112</v>
       </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>61</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>59</v>
+      </c>
+      <c r="S15" t="s">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>25</v>
       </c>
-      <c r="R15" t="s">
+      <c r="V15" t="s">
         <v>13</v>
       </c>
-      <c r="S15">
+      <c r="W15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1121,26 +1289,38 @@
       <c r="H16">
         <v>92</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>45</v>
+      </c>
+      <c r="S16" t="s">
         <v>17</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>22</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>17</v>
       </c>
-      <c r="S16">
+      <c r="W16">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1159,26 +1339,38 @@
       <c r="H17">
         <v>114</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
         <v>26</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>15</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>830</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1197,26 +1389,38 @@
       <c r="H18">
         <v>30</v>
       </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>643</v>
+      </c>
+      <c r="M18" t="s">
         <v>26</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="S18" t="s">
         <v>15</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>896</v>
       </c>
-      <c r="R18" t="s">
+      <c r="V18" t="s">
         <v>23</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,26 +1439,38 @@
       <c r="H19">
         <v>436</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1900</v>
+      </c>
+      <c r="M19" t="s">
         <v>15</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>544</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>498</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="1">
+      <c r="T19" s="1">
         <v>779</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="1">
+      <c r="W19" s="1">
         <v>696</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1273,26 +1489,38 @@
       <c r="H20" s="1">
         <v>2123</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1">
+        <v>13388</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>1813</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1680</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="1">
+      <c r="T20" s="1">
         <v>11627</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="1">
+      <c r="W20" s="1">
         <v>8041</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1311,26 +1539,38 @@
       <c r="H21" s="1">
         <v>13630</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>13722</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>12210</v>
+      </c>
+      <c r="S21" t="s">
         <v>18</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>30</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>18</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1349,26 +1589,38 @@
       <c r="H22">
         <v>51</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
         <v>18</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>36</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
         <v>3</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>24</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1387,26 +1639,38 @@
       <c r="H23">
         <v>32</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>1710</v>
+      </c>
+      <c r="M23" t="s">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>30</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>28</v>
+      </c>
+      <c r="S23" t="s">
         <v>14</v>
       </c>
-      <c r="P23">
+      <c r="T23">
         <v>1383</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>14</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>1287</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1425,26 +1689,38 @@
       <c r="H24">
         <v>1922</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>1696</v>
+      </c>
+      <c r="M24" t="s">
         <v>14</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>1251</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24">
+        <v>1295</v>
+      </c>
+      <c r="S24" t="s">
         <v>4</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>1394</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>4</v>
       </c>
-      <c r="S24">
+      <c r="W24">
         <v>916</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1463,66 +1739,96 @@
       <c r="H25">
         <v>2042</v>
       </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>1762</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>1491</v>
+      </c>
+      <c r="S25" t="s">
         <v>24</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>1</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>24</v>
       </c>
-      <c r="S25">
+      <c r="W25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>24</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>451</v>
+      </c>
+      <c r="M26" t="s">
         <v>24</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
         <v>11</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>394</v>
       </c>
-      <c r="R26" t="s">
+      <c r="V26" t="s">
         <v>11</v>
       </c>
-      <c r="S26">
+      <c r="W26">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27">
         <v>467</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>11</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>496</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>407</v>
       </c>
@@ -1568,7 +1874,7 @@
         <v>7069</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>373</v>
       </c>
@@ -1591,7 +1897,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>354</v>
       </c>
@@ -1683,45 +1989,91 @@
         <v>5337</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>241</v>
+      </c>
+      <c r="B36">
+        <v>1538</v>
+      </c>
+      <c r="C36">
+        <v>1680</v>
+      </c>
+      <c r="D36">
+        <v>12210</v>
+      </c>
+      <c r="E36">
+        <v>6294</v>
+      </c>
+      <c r="F36">
+        <v>14475</v>
+      </c>
+      <c r="G36">
+        <v>6799</v>
+      </c>
+    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <f>SUM(A30:A35)</f>
-        <v>1828</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" ref="B37:G37" si="0">SUM(B30:B35)</f>
-        <v>8918</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="0"/>
-        <v>7985</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>75875</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>42372</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="0"/>
-        <v>86495</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="0"/>
-        <v>39888</v>
+      <c r="A37">
+        <v>311</v>
+      </c>
+      <c r="B37">
+        <v>1600</v>
+      </c>
+      <c r="C37">
+        <v>1900</v>
+      </c>
+      <c r="D37">
+        <v>13388</v>
+      </c>
+      <c r="E37">
+        <v>7112</v>
+      </c>
+      <c r="F37">
+        <v>14793</v>
+      </c>
+      <c r="G37">
+        <v>7202</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="5">
-        <f>SUM(A37:G37)</f>
-        <v>263361</v>
+      <c r="A39" s="4">
+        <f>SUM(A30:A37)</f>
+        <v>2380</v>
+      </c>
+      <c r="B39" s="4">
+        <f>SUM(B30:B37)</f>
+        <v>12056</v>
+      </c>
+      <c r="C39" s="4">
+        <f>SUM(C30:C37)</f>
+        <v>11565</v>
+      </c>
+      <c r="D39" s="4">
+        <f>SUM(D30:D37)</f>
+        <v>101473</v>
+      </c>
+      <c r="E39" s="4">
+        <f>SUM(E30:E37)</f>
+        <v>55778</v>
+      </c>
+      <c r="F39" s="4">
+        <f>SUM(F30:F37)</f>
+        <v>115763</v>
+      </c>
+      <c r="G39" s="4">
+        <f>SUM(G30:G37)</f>
+        <v>53889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <f>SUM(A39:G39)</f>
+        <v>352904</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R1:S28">
-    <sortCondition ref="R1:R28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K26">
+    <sortCondition ref="J2:J26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Anzahl_Pforms-Gesamt.xlsx
+++ b/Anzahl_Pforms-Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschu\Desktop\Beta-Recog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352630F-ED06-4EF3-ABC4-00717E46C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC2FCC-4C40-4D45-809C-F0B0B50670C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +150,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -211,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -525,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F73C7A-E6D5-42DE-AB12-D3DBA7F9CF75}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,31 +2052,31 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <f>SUM(A30:A37)</f>
+        <f t="shared" ref="A39:G39" si="0">SUM(A30:A37)</f>
         <v>2380</v>
       </c>
       <c r="B39" s="4">
-        <f>SUM(B30:B37)</f>
+        <f t="shared" si="0"/>
         <v>12056</v>
       </c>
       <c r="C39" s="4">
-        <f>SUM(C30:C37)</f>
+        <f t="shared" si="0"/>
         <v>11565</v>
       </c>
       <c r="D39" s="4">
-        <f>SUM(D30:D37)</f>
+        <f t="shared" si="0"/>
         <v>101473</v>
       </c>
       <c r="E39" s="4">
-        <f>SUM(E30:E37)</f>
+        <f t="shared" si="0"/>
         <v>55778</v>
       </c>
       <c r="F39" s="4">
-        <f>SUM(F30:F37)</f>
+        <f t="shared" si="0"/>
         <v>115763</v>
       </c>
       <c r="G39" s="4">
-        <f>SUM(G30:G37)</f>
+        <f t="shared" si="0"/>
         <v>53889</v>
       </c>
     </row>
@@ -2069,6 +2084,136 @@
       <c r="G41" s="5">
         <f>SUM(A39:G39)</f>
         <v>352904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>115759</v>
+      </c>
+      <c r="B45">
+        <f>(A45/354907)*100</f>
+        <v>32.616713674286501</v>
+      </c>
+      <c r="C45">
+        <v>32769</v>
+      </c>
+      <c r="D45">
+        <f>(C45/100000)*100</f>
+        <v>32.768999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>101473</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:B52" si="1">(A46/354907)*100</f>
+        <v>28.591433812238137</v>
+      </c>
+      <c r="C46">
+        <v>28492</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D52" si="2">(C46/100000)*100</f>
+        <v>28.492000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>55767</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>15.713130482069952</v>
+      </c>
+      <c r="C47">
+        <v>15862</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>15.862000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>53888</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>15.183696010504161</v>
+      </c>
+      <c r="C48">
+        <v>15117</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>15.116999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>13584</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>3.8274815655932404</v>
+      </c>
+      <c r="C49">
+        <v>3771</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>3.7709999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>12056</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>3.3969462422550132</v>
+      </c>
+      <c r="C50">
+        <v>3324</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>3.3239999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>2380</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>0.67059821305299694</v>
+      </c>
+      <c r="C51">
+        <v>665</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0.66499999999999992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <f>SUM(A45:A51)</f>
+        <v>354907</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <f>SUM(C45:C51)</f>
+        <v>100000</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Anzahl_Pforms-Gesamt.xlsx
+++ b/Anzahl_Pforms-Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschu\Desktop\Beta-Recog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AC2FCC-4C40-4D45-809C-F0B0B50670C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F52C5-419B-4CE2-B897-EB49F022B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="36">
   <si>
     <t xml:space="preserve">BER  </t>
   </si>
@@ -130,12 +130,27 @@
   <si>
     <t>DOS</t>
   </si>
+  <si>
+    <t>CHR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRF   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +172,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -215,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -226,11 +247,30 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -241,6 +281,1313 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Anzahl Pressetexte</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> nach Präsentationsformen      </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>(Prio 1 bis 2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-33C9-4D7B-AAE6-47B25E36FE06}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-33C9-4D7B-AAE6-47B25E36FE06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$L$43:$L$49</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>INT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REZ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GRF   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KOM  </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>REP </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ESS </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CHR  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$43:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>115759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33C9-4D7B-AAE6-47B25E36FE06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D8252B-05BE-E6BE-2654-8478B5E72E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,1687 +1887,1753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F73C7A-E6D5-42DE-AB12-D3DBA7F9CF75}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="15" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="18" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1">
         <v>2013</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2014</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2015</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2016</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2017</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2018</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2019</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2020</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>367</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>297</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>363</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>172</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>136</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>110</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>8</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>288</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>22</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>22</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>129430</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>129299</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>128195</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>128573</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>25</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>135064</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>156437</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>134429</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>373</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>129563</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>311</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>267</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>241</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>263</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>407</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1608</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>354</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1600</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>1468</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>1343</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>1446</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>147</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>107</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1539</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>1538</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>20</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>90</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>20</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>262</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1514</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>97</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>19</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>19</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>7665</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>120</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>7112</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>5</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>6278</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>5726</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>8356</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>14982</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>14793</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>6667</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>6294</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>14373</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>12430</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>15348</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>6904</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>7680</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>7202</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>14739</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>14475</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>6980</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>5337</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>7069</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>14623</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>6621</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>6799</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>21</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>18</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>21</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1055</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>6977</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>775</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>21</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>14</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>26</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>6</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>648</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>6</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>975</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>118</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>76</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>6</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>642</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>620</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>12</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>57</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>12</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>177</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>105</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1112</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>64</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>61</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>12</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>59</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>13</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>25</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>13</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>92</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>25</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>13</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>24</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>13</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>45</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>17</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>22</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>17</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>473</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>114</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>26</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>17</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>46</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>17</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>20</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>26</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>15</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>830</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>761</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2244</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>30</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>643</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>10</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>15</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>896</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>23</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>2350</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>13646</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>436</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1900</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>15</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>544</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>15</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>498</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>779</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>696</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>15209</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>64</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2123</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>13388</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>1813</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>1680</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>11627</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>8041</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>13630</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>18</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>39</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>13722</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>12210</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>18</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>30</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>18</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2091</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>18</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>51</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>34</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>18</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>36</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>18</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>32</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>3</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>24</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>3</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2381</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1634</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>3</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>32</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>14</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1710</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>3</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>30</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>3</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>28</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>14</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1383</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>14</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>1287</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1727</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1922</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1696</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>14</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1251</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>14</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1295</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>4</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1394</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>4</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>916</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>436</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>445</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2042</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>4</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1762</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>4</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1491</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>24</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>24</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>24</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>451</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>24</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>24</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>11</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>394</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>11</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>467</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>11</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>496</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>11</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>407</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1446</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2350</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>15209</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>8356</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>15348</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7069</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>373</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1608</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>224</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>13646</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7665</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>14982</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6904</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>354</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1514</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2123</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13630</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7680</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>14623</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>6977</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>267</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1539</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1813</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>13722</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>6667</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>14739</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6621</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>263</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1468</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>779</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>11627</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>6278</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>14373</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>6980</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>164</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1343</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>696</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>8041</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>5726</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>12430</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>5337</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>241</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1538</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1680</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>12210</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>6294</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>14475</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6799</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>311</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1600</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1900</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>13388</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7112</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>14793</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>7202</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <f t="shared" ref="A39:G39" si="0">SUM(A30:A37)</f>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <f t="shared" ref="B39:H39" si="0">SUM(B30:B37)</f>
         <v>2380</v>
       </c>
-      <c r="B39" s="4">
-        <f t="shared" si="0"/>
+      <c r="C39" s="4">
+        <f>SUM(C30:C37)</f>
         <v>12056</v>
       </c>
-      <c r="C39" s="4">
-        <f t="shared" si="0"/>
-        <v>11565</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="D39" s="4" t="e">
+        <f>SUM(K44D30:D37)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>101473</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <f t="shared" si="0"/>
         <v>55778</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>115763</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <f t="shared" si="0"/>
         <v>53889</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="5">
-        <f>SUM(A39:G39)</f>
-        <v>352904</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="5" t="e">
+        <f>SUM(B39:H39)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="10">
         <v>115759</v>
       </c>
-      <c r="B45">
-        <f>(A45/354907)*100</f>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="11">
+        <v>101473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="7">
+        <v>115759</v>
+      </c>
+      <c r="C45">
+        <f>(B45/354907)*100</f>
         <v>32.616713674286501</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>32769</v>
       </c>
-      <c r="D45">
-        <f>(C45/100000)*100</f>
+      <c r="E45">
+        <f>(D45/100000)*100</f>
         <v>32.768999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="L45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" s="10">
+        <v>55767</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7">
         <v>101473</v>
       </c>
-      <c r="B46">
-        <f t="shared" ref="B46:B52" si="1">(A46/354907)*100</f>
+      <c r="C46">
+        <f t="shared" ref="C46:C52" si="1">(B46/354907)*100</f>
         <v>28.591433812238137</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>28492</v>
       </c>
-      <c r="D46">
-        <f t="shared" ref="D46:D52" si="2">(C46/100000)*100</f>
+      <c r="E46">
+        <f t="shared" ref="E46:E52" si="2">(D46/100000)*100</f>
         <v>28.492000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="L46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="10">
+        <v>53888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
         <v>55767</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <f t="shared" si="1"/>
         <v>15.713130482069952</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>15862</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="2"/>
         <v>15.862000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="L47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="10">
+        <v>13584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
         <v>53888</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>15.183696010504161</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>15117</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="2"/>
         <v>15.116999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="L48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="10">
+        <v>12056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
         <v>13584</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>3.8274815655932404</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>3771</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="2"/>
         <v>3.7709999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="L49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="10">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="7">
         <v>12056</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <f t="shared" si="1"/>
         <v>3.3969462422550132</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>3324</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="2"/>
         <v>3.3239999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="7">
         <v>2380</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <f t="shared" si="1"/>
         <v>0.67059821305299694</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>665</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="2"/>
         <v>0.66499999999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <f>SUM(A45:A51)</f>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f>SUM(B45:B51)</f>
         <v>354907</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C52">
-        <f>SUM(C45:C51)</f>
+      <c r="D52">
+        <f>SUM(D45:D51)</f>
         <v>100000</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K26">
-    <sortCondition ref="J2:J26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:L26">
+    <sortCondition ref="K2:K26"/>
   </sortState>
+  <conditionalFormatting sqref="L45:L49 M44 L43">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Anzahl_Pforms-Gesamt.xlsx
+++ b/Anzahl_Pforms-Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschu\Desktop\Beta-Recog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F52C5-419B-4CE2-B897-EB49F022B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C39146-D42F-4C6F-95FB-BB9A30E3204F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00B1F729-462C-4C07-A6D5-6BE168CFFAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -297,76 +297,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Anzahl Pressetexte</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> nach Präsentationsformen      </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t>(Prio 1 bis 2)</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -379,7 +310,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -403,7 +334,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -427,7 +358,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -451,7 +382,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -475,7 +406,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -499,7 +430,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -523,9 +454,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -563,7 +492,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent1"/>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -588,6 +517,70 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{1A326383-2973-467F-B20B-2A5F65A2BFD1}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[RUBRIKENNAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{7FB02B79-3E25-4F5B-97B2-FC2DF7DA2F96}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PROZENTSATZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -604,7 +597,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -622,6 +615,10 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-33C9-4D7B-AAE6-47B25E36FE06}"/>
                 </c:ext>
@@ -645,7 +642,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent4"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -686,7 +683,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent4"/>
+                        <a:schemeClr val="accent5"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -711,6 +708,70 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{310BB8F8-296C-4FAF-A276-380FC0FE64A0}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent2"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[RUBRIKENNAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{BAE0A736-8627-43DA-A3C9-9A8B12783600}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent2"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PROZENTSATZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -727,7 +788,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent5"/>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -745,6 +806,10 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-33C9-4D7B-AAE6-47B25E36FE06}"/>
                 </c:ext>
@@ -768,7 +833,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent6"/>
+                        <a:srgbClr val="C00000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -809,9 +874,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -834,6 +897,32 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1554,15 +1643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1889,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F73C7A-E6D5-42DE-AB12-D3DBA7F9CF75}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
